--- a/exercise/hfc_replacements.xlsx
+++ b/exercise/hfc_replacements.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>id</t>
   </si>
@@ -31,9 +31,6 @@
   </si>
   <si>
     <t>notes</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>drop</t>
@@ -49,21 +46,6 @@
   </si>
   <si>
     <t>variable</t>
-  </si>
-  <si>
-    <t>salary</t>
-  </si>
-  <si>
-    <t>D7. How much have you earned in the past month?</t>
-  </si>
-  <si>
-    <t>Value is high. Soft Max. = 10000</t>
-  </si>
-  <si>
-    <t>Value is small. Soft Min. = 0</t>
-  </si>
-  <si>
-    <t>.d</t>
   </si>
 </sst>
 </file>
@@ -855,10 +837,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="A2" sqref="A2:I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -878,13 +860,13 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F1" t="s">
         <v>2</v>
@@ -893,186 +875,15 @@
         <v>3</v>
       </c>
       <c r="H1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J1" s="2"/>
     </row>
-    <row r="2" spans="1:10">
-      <c r="A2">
-        <v>510</v>
-      </c>
-      <c r="B2">
-        <v>36</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2">
-        <v>15000</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3">
-        <v>640</v>
-      </c>
-      <c r="B3">
-        <v>25</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3">
-        <v>20000</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I3">
-        <v>2000</v>
-      </c>
-    </row>
     <row r="4" spans="1:10">
-      <c r="A4">
-        <v>877</v>
-      </c>
-      <c r="B4">
-        <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4">
-        <v>-999</v>
-      </c>
-      <c r="F4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H4" t="s">
-        <v>4</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5">
-        <v>1004</v>
-      </c>
-      <c r="B5">
-        <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5">
-        <v>23000</v>
-      </c>
-      <c r="F5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H5" t="s">
-        <v>4</v>
-      </c>
-      <c r="I5">
-        <v>2300</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6">
-        <v>1612</v>
-      </c>
-      <c r="B6">
-        <v>35</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6">
-        <v>13000</v>
-      </c>
-      <c r="F6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I6">
-        <v>1300</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7">
-        <v>1671</v>
-      </c>
-      <c r="B7">
-        <v>34</v>
-      </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7">
-        <v>12000</v>
-      </c>
-      <c r="F7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" t="s">
-        <v>4</v>
-      </c>
-      <c r="H7" t="s">
-        <v>4</v>
-      </c>
-      <c r="I7">
-        <v>1200</v>
-      </c>
+      <c r="I4" s="1"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:XFD1">
